--- a/App/data/FYP_coordinator.xlsx
+++ b/App/data/FYP_coordinator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clare/Documents/GitHub/OOP-FYP-Management-Project/App/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6963A2CA-C792-424D-A8FF-02255F49938F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320CAFD6-E573-4B4E-B159-6C377E0AEB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12460" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="30Aug2022_FYP Examiner List" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,18 +69,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color indexed="64"/>
@@ -101,6 +89,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="64"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,10 +121,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,34 +444,34 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>

--- a/App/data/FYP_coordinator.xlsx
+++ b/App/data/FYP_coordinator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6963A2CA-C792-424D-A8FF-02255F49938F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB66CB-FC90-4465-8717-89FC90883A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="30Aug2022_FYP Examiner List" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,18 +63,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="64"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -123,14 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,40 +431,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/App/data/FYP_coordinator.xlsx
+++ b/App/data/FYP_coordinator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\GitHub\OOP-FYP-Management-Project\App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB66CB-FC90-4465-8717-89FC90883A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6963A2CA-C792-424D-A8FF-02255F49938F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="30Aug2022_FYP Examiner List" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,18 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <color indexed="64"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="64"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
@@ -111,12 +123,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,43 +445,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:D3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
